--- a/medicine/Maladies infectieuses/Paliers_d'alerte_de_la_Covid-19_au_Québec/Paliers_d'alerte_de_la_Covid-19_au_Québec.xlsx
+++ b/medicine/Maladies infectieuses/Paliers_d'alerte_de_la_Covid-19_au_Québec/Paliers_d'alerte_de_la_Covid-19_au_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paliers_d%27alerte_de_la_Covid-19_au_Qu%C3%A9bec</t>
+          <t>Paliers_d'alerte_de_la_Covid-19_au_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article détaille le système d’alertes et d’interventions régionales du gouvernement du Québec lors de la pandémie de Covid-19.
-Le 8 septembre 2020, le ministre de la Santé Christian Dubé annonce la mise en place d'un système régional de paliers d'alertes[1],[2]. Cela permet d'avoir des mesures différenciées par région selon 3 critères: la situation épidémiologique, le contrôle de transmission et la capacité du système de soins à traiter les cas. Un palier est attribué à chaque région du Québec, et est changé selon l'évolution de la situation.
+Le 8 septembre 2020, le ministre de la Santé Christian Dubé annonce la mise en place d'un système régional de paliers d'alertes,. Cela permet d'avoir des mesures différenciées par région selon 3 critères: la situation épidémiologique, le contrôle de transmission et la capacité du système de soins à traiter les cas. Un palier est attribué à chaque région du Québec, et est changé selon l'évolution de la situation.
 Chaque palier d'alerte a une couleur associée:
 Palier 1 –  « Vigilance »: vert
 Palier 2 – « Préalerte »: jaune
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paliers_d%27alerte_de_la_Covid-19_au_Qu%C3%A9bec</t>
+          <t>Paliers_d'alerte_de_la_Covid-19_au_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,17 +533,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Palier 1 - Vigilance (vert)
-Palier 2 - Préalerte (jaune)
-Les mesures de base, identiques à celle du palier 1, sont alors renforcées et davantage d’actions sont déployées pour promouvoir et encourager leur respect.
-Palier 3 - Alerte (orange)
-↑ L'italique indique que la mesure est identique au palier inférieur.
-Palier 4 - Alerte maximale (rouge)
-Alerte maximale applique de manière ciblée des mesures plus restrictives pouvant aller jusqu’à faire cesser les activités non essentielles pour lesquelles le risque ne peut pas être contrôlé suffisamment, en évitant autant que possible un confinement généralisé comme lors de la première vague de la pandémie.
-Les écoles restent ouvertes[4]. Dans les écoles secondaires, le port du masque est obligatoire dans la cour de l’établissement et dans la classe pour les élèves de la maternelle jusqu’en secondaire 5. Les élèves dînent à leur place restrictive. Les sports d'équipe doivent se pratiquer en groupe-bulle, en milieu scolaire et en ligues. Les élèves de troisième, quatrième et cinquième secondaire se présentent à l'école un jour sur deux, et assistent à des cours à distance l'autre jour[5]. Les enseignants restent à 2 m ou plus de distance pour pouvoir retirer leur masque afin d’enseigner correctement. Le retour en classe en zone rouge se fait à partir de 29 mars[6].
-Pour les secondaire 3, 4 et 5, le retour en classe à l'école une journée sur deux en zone rouge se fait à partir de 12 avril[7].
-Couvre-feu de 21h30 à 5h.
-Les gyms, spas, piscines publiques, restaurants, bars, microbrasseries et autres sont fermés. Les restaurants offrent seulement le service de cueillette ou de livraison. À partir du 26 mars, les gyms et autres activités sportives reprennent graduellement[8].
+          <t>Palier 2 - Préalerte (jaune)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mesures de base, identiques à celle du palier 1, sont alors renforcées et davantage d’actions sont déployées pour promouvoir et encourager leur respect.
 </t>
         </is>
       </c>
@@ -542,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paliers_d%27alerte_de_la_Covid-19_au_Qu%C3%A9bec</t>
+          <t>Paliers_d'alerte_de_la_Covid-19_au_Québec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,10 +565,91 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Paliers d'alerte et d'interventions[3]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Palier 3 - Alerte (orange)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+↑ L'italique indique que la mesure est identique au palier inférieur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paliers_d'alerte_de_la_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paliers_d%27alerte_de_la_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Paliers d'alerte et d'interventions[3]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Palier 4 - Alerte maximale (rouge)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alerte maximale applique de manière ciblée des mesures plus restrictives pouvant aller jusqu’à faire cesser les activités non essentielles pour lesquelles le risque ne peut pas être contrôlé suffisamment, en évitant autant que possible un confinement généralisé comme lors de la première vague de la pandémie.
+Les écoles restent ouvertes. Dans les écoles secondaires, le port du masque est obligatoire dans la cour de l’établissement et dans la classe pour les élèves de la maternelle jusqu’en secondaire 5. Les élèves dînent à leur place restrictive. Les sports d'équipe doivent se pratiquer en groupe-bulle, en milieu scolaire et en ligues. Les élèves de troisième, quatrième et cinquième secondaire se présentent à l'école un jour sur deux, et assistent à des cours à distance l'autre jour. Les enseignants restent à 2 m ou plus de distance pour pouvoir retirer leur masque afin d’enseigner correctement. Le retour en classe en zone rouge se fait à partir de 29 mars.
+Pour les secondaire 3, 4 et 5, le retour en classe à l'école une journée sur deux en zone rouge se fait à partir de 12 avril.
+Couvre-feu de 21h30 à 5h.
+Les gyms, spas, piscines publiques, restaurants, bars, microbrasseries et autres sont fermés. Les restaurants offrent seulement le service de cueillette ou de livraison. À partir du 26 mars, les gyms et autres activités sportives reprennent graduellement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paliers_d'alerte_de_la_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paliers_d%27alerte_de_la_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Chronologie des paliers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mesures particulières
@@ -570,8 +659,43 @@
 Alerte
 Alerte avec exceptions pour certains territoires
 Alerte maximale
-Mesures supplémentaires débutant le 1er octobre 2020 (palier rouge, alerte maximale)
-Le palier rouge entre en vigueur pour 4 régions administratives du Québec le 1er octobre, et sont pour une durée de 28 jours, jusqu'au 28 octobre[43]. Bien que la nouvelle aie été annoncée le 28 septembre, les mesures s'appliquent seulement à partir du 1er octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paliers_d'alerte_de_la_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paliers_d%27alerte_de_la_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chronologie des paliers</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mesures supplémentaires débutant le 1er octobre 2020 (palier rouge, alerte maximale)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le palier rouge entre en vigueur pour 4 régions administratives du Québec le 1er octobre, et sont pour une durée de 28 jours, jusqu'au 28 octobre. Bien que la nouvelle aie été annoncée le 28 septembre, les mesures s'appliquent seulement à partir du 1er octobre.
 Mesures supplémentaires:
 Seuls les habitants d'une même adresse peuvent se rassembler. Les rassemblements dans les domiciles privés seront autrement interdits.
 Exceptions pour les proches aidants, les enfants en garde partagée, les personnes offrant un service ou du soutien ou les personnes qui font des travaux de construction déjà prévus.
